--- a/main/ig/StructureDefinition-FrMedicationUcd.xlsx
+++ b/main/ig/StructureDefinition-FrMedicationUcd.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="273">
   <si>
     <t>Property</t>
   </si>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -325,17 +325,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Medication.implicitRules</t>
   </si>
   <si>
@@ -355,9 +348,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.language</t>
   </si>
   <si>
@@ -435,6 +425,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Medication.extension</t>
   </si>
   <si>
@@ -455,16 +448,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -508,9 +491,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>Medication.code</t>
@@ -570,10 +550,23 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Medication.code.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -666,13 +659,6 @@
   </si>
   <si>
     <t>Describes the details of the manufacturer of the medication product.  This is not intended to represent the distributor of a medication product.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>no mapping</t>
@@ -729,6 +715,10 @@
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
@@ -864,9 +854,6 @@
   </si>
   <si>
     <t>The assigned lot number of a batch of the specified product.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>RXA-15 Substance Lot Number / RXG-19 Substance Lot Number</t>
@@ -1691,16 +1678,16 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>21</v>
@@ -1711,10 +1698,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1737,16 +1724,16 @@
         <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1796,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -1805,16 +1792,16 @@
         <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>21</v>
@@ -1825,10 +1812,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1851,16 +1838,16 @@
         <v>21</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1886,31 +1873,31 @@
         <v>21</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -1919,16 +1906,16 @@
         <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>21</v>
@@ -1939,14 +1926,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1965,16 +1952,16 @@
         <v>21</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2024,7 +2011,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -2033,16 +2020,16 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>21</v>
@@ -2053,14 +2040,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2079,16 +2066,16 @@
         <v>21</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2138,7 +2125,7 @@
         <v>21</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2156,7 +2143,7 @@
         <v>21</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>21</v>
@@ -2167,14 +2154,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2193,16 +2180,16 @@
         <v>21</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2240,19 +2227,19 @@
         <v>21</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2261,16 +2248,16 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>21</v>
@@ -2281,14 +2268,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2307,19 +2294,19 @@
         <v>21</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>21</v>
@@ -2356,19 +2343,19 @@
         <v>21</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2377,16 +2364,16 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>21</v>
@@ -2397,10 +2384,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2423,16 +2410,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2482,7 +2469,7 @@
         <v>21</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2491,30 +2478,30 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2537,19 +2524,19 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>21</v>
@@ -2574,11 +2561,11 @@
         <v>21</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>21</v>
@@ -2596,7 +2583,7 @@
         <v>21</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2605,30 +2592,30 @@
         <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2651,13 +2638,13 @@
         <v>21</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2708,7 +2695,7 @@
         <v>21</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2726,7 +2713,7 @@
         <v>21</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>21</v>
@@ -2737,14 +2724,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2763,16 +2750,16 @@
         <v>21</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2810,19 +2797,19 @@
         <v>21</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -2831,16 +2818,16 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>21</v>
@@ -2851,10 +2838,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2877,19 +2864,19 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>21</v>
@@ -2938,7 +2925,7 @@
         <v>21</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2947,30 +2934,30 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2993,19 +2980,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>21</v>
@@ -3054,7 +3041,7 @@
         <v>21</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3063,30 +3050,30 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3109,16 +3096,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3144,14 +3131,14 @@
         <v>21</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>21</v>
       </c>
@@ -3168,7 +3155,7 @@
         <v>21</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3177,16 +3164,16 @@
         <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK17" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>21</v>
@@ -3197,10 +3184,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3223,17 +3210,15 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>21</v>
@@ -3282,7 +3267,7 @@
         <v>21</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3291,30 +3276,30 @@
         <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3337,16 +3322,16 @@
         <v>21</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3372,11 +3357,11 @@
         <v>21</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>21</v>
@@ -3394,7 +3379,7 @@
         <v>21</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3403,30 +3388,30 @@
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3449,16 +3434,16 @@
         <v>21</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3508,7 +3493,7 @@
         <v>21</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3517,30 +3502,30 @@
         <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3563,16 +3548,16 @@
         <v>21</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3622,7 +3607,7 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3631,16 +3616,16 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>21</v>
@@ -3651,10 +3636,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3677,13 +3662,13 @@
         <v>21</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3734,7 +3719,7 @@
         <v>21</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3752,7 +3737,7 @@
         <v>21</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>21</v>
@@ -3763,14 +3748,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3789,16 +3774,16 @@
         <v>21</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3836,19 +3821,19 @@
         <v>21</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -3857,16 +3842,16 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>21</v>
@@ -3877,14 +3862,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3903,19 +3888,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>21</v>
@@ -3964,7 +3949,7 @@
         <v>21</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -3973,16 +3958,16 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>21</v>
@@ -3993,10 +3978,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4019,17 +4004,17 @@
         <v>21</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>21</v>
@@ -4078,7 +4063,7 @@
         <v>21</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4087,30 +4072,30 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4133,17 +4118,17 @@
         <v>21</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>21</v>
@@ -4192,7 +4177,7 @@
         <v>21</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4201,16 +4186,16 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>21</v>
@@ -4221,10 +4206,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4247,16 +4232,16 @@
         <v>21</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4306,7 +4291,7 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4315,30 +4300,30 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4361,16 +4346,16 @@
         <v>21</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4420,7 +4405,7 @@
         <v>21</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4429,16 +4414,16 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>21</v>
@@ -4449,10 +4434,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4475,13 +4460,13 @@
         <v>21</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4532,7 +4517,7 @@
         <v>21</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4550,7 +4535,7 @@
         <v>21</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>21</v>
@@ -4561,14 +4546,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4587,16 +4572,16 @@
         <v>21</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4634,19 +4619,19 @@
         <v>21</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4655,16 +4640,16 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>21</v>
@@ -4675,14 +4660,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4701,19 +4686,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>21</v>
@@ -4762,7 +4747,7 @@
         <v>21</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4771,16 +4756,16 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>21</v>
@@ -4791,10 +4776,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4817,17 +4802,15 @@
         <v>21</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>21</v>
@@ -4876,7 +4859,7 @@
         <v>21</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -4885,30 +4868,30 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4931,13 +4914,13 @@
         <v>21</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4988,7 +4971,7 @@
         <v>21</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -4997,22 +4980,22 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
